--- a/src/test/resources/addselection/addSelectionNotExist.xlsx
+++ b/src/test/resources/addselection/addSelectionNotExist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\addselection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4869A0-4FFD-4486-AF8F-5A577D4D6508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D0C07-35E7-4480-88FC-74E8DA78F67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,10 +43,6 @@
     <t>${KEY_ENTER}</t>
   </si>
   <si>
-    <t>json</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>readProperties</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -60,10 +56,6 @@
   </si>
   <si>
     <t>TestCase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\xihu_\Desktop\2.json</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -121,12 +113,183 @@
     <t>aaaaa</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF871094"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"file"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>"C:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>xihu_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Desktop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0037A6"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>\\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.json"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF080808"/>
+        <rFont val="Sarasa Mono CL"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -170,6 +333,34 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF871094"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0037A6"/>
+      <name val="Sarasa Mono CL"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,14 +746,14 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
@@ -572,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -596,34 +790,34 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -632,28 +826,28 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -662,10 +856,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
@@ -677,13 +871,13 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="M3" s="6">
         <v>2000</v>
